--- a/src/main/resources/AutoTestData.xlsx
+++ b/src/main/resources/AutoTestData.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3CC1382-634F-4702-88EE-FDB1121AE65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
-    <sheet name="Maps" sheetId="2" r:id="rId2"/>
+    <sheet name="Maps" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O23"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Test No</t>
   </si>
@@ -41,15 +33,6 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Sub-title1</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -59,111 +42,24 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Sub-title2</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>11418</t>
-  </si>
-  <si>
     <t>About You</t>
   </si>
   <si>
-    <t>https://sales.geico.com/quote</t>
-  </si>
-  <si>
-    <t>Let’s get started.</t>
-  </si>
-  <si>
-    <t>02/02/1988</t>
-  </si>
-  <si>
-    <t>Mahmudul</t>
-  </si>
-  <si>
     <t>Hussain</t>
   </si>
   <si>
-    <t>Tell us about yourself.</t>
-  </si>
-  <si>
-    <t>11419</t>
-  </si>
-  <si>
     <t>11417</t>
   </si>
   <si>
     <t>11416</t>
   </si>
   <si>
-    <t>11414</t>
-  </si>
-  <si>
-    <t>01/02/1978</t>
-  </si>
-  <si>
-    <t>02/03/1980</t>
-  </si>
-  <si>
-    <t>06/02/1958</t>
-  </si>
-  <si>
-    <t>02/12/1968</t>
-  </si>
-  <si>
-    <t>Dale</t>
-  </si>
-  <si>
-    <t>Styn</t>
-  </si>
-  <si>
-    <t>Brain</t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>Shachin</t>
-  </si>
-  <si>
-    <t>Tandulkar</t>
-  </si>
-  <si>
-    <t>Virat</t>
-  </si>
-  <si>
-    <t>Kholi</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>hjhu</t>
-  </si>
-  <si>
-    <t>lkl</t>
-  </si>
-  <si>
-    <t>b vb</t>
-  </si>
-  <si>
-    <t>bh</t>
-  </si>
-  <si>
-    <t>kldjk</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
@@ -216,13 +112,28 @@
   </si>
   <si>
     <t>miah</t>
+  </si>
+  <si>
+    <t>gfdgf</t>
+  </si>
+  <si>
+    <t>fggfg</t>
+  </si>
+  <si>
+    <t>fgfg</t>
+  </si>
+  <si>
+    <t>ffgfg</t>
+  </si>
+  <si>
+    <t>Tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,15 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -601,33 +508,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,131 +545,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -772,272 +679,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FA8B99-2463-49D6-A05D-A3FE5200D9A5}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>